--- a/data/georgia_census/imereti/kutaisi/average_wages.xlsx
+++ b/data/georgia_census/imereti/kutaisi/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168EA7D2-CEEC-4CA4-90EC-0D8D00C5404B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{631C73D6-1C4A-4465-9A62-598B18CA7972}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA6A8D4-AB14-4694-A886-C9D512BE0F96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B0592EA-FB7F-4408-BAFE-D6FFC72B4EBE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21551914-E471-4629-BE7F-2DD3670CBB20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51C657B-AA04-4026-9876-7A78235B189E}"/>
 </file>